--- a/REGULAR/PICNIC GROVE/BAURILE, LOURDES.xlsx
+++ b/REGULAR/PICNIC GROVE/BAURILE, LOURDES.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="282">
   <si>
     <t>PERIOD</t>
   </si>
@@ -876,6 +876,9 @@
   </si>
   <si>
     <t>UT(0-1-9)</t>
+  </si>
+  <si>
+    <t>11/9,16,18,23,25/2023</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1597,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K496" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K497" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1923,12 +1926,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M496"/>
+  <dimension ref="A2:M497"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A433" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A436" activePane="bottomLeft"/>
       <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="H449" sqref="H449"/>
+      <selection pane="bottomLeft" activeCell="K452" sqref="K452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2087,7 +2090,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>200.94599999999997</v>
+        <v>198.44599999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2097,7 +2100,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>299.75</v>
+        <v>302.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11683,13 +11686,15 @@
       <c r="B449" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C449" s="13"/>
+      <c r="C449" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D449" s="38"/>
       <c r="E449" s="9"/>
       <c r="F449" s="20"/>
-      <c r="G449" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G449" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H449" s="38"/>
       <c r="I449" s="9"/>
@@ -11703,13 +11708,15 @@
         <v>45200</v>
       </c>
       <c r="B450" s="20"/>
-      <c r="C450" s="13"/>
+      <c r="C450" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D450" s="38"/>
       <c r="E450" s="9"/>
       <c r="F450" s="20"/>
-      <c r="G450" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G450" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H450" s="38"/>
       <c r="I450" s="9"/>
@@ -11720,9 +11727,13 @@
       <c r="A451" s="39">
         <v>45231</v>
       </c>
-      <c r="B451" s="20"/>
+      <c r="B451" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C451" s="13"/>
-      <c r="D451" s="38"/>
+      <c r="D451" s="38">
+        <v>5</v>
+      </c>
       <c r="E451" s="9"/>
       <c r="F451" s="20"/>
       <c r="G451" s="13" t="str">
@@ -11732,13 +11743,15 @@
       <c r="H451" s="38"/>
       <c r="I451" s="9"/>
       <c r="J451" s="11"/>
-      <c r="K451" s="20"/>
+      <c r="K451" s="20" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="39">
-        <v>45261</v>
-      </c>
-      <c r="B452" s="20"/>
+      <c r="A452" s="39"/>
+      <c r="B452" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C452" s="13"/>
       <c r="D452" s="38"/>
       <c r="E452" s="9"/>
@@ -11750,11 +11763,13 @@
       <c r="H452" s="38"/>
       <c r="I452" s="9"/>
       <c r="J452" s="11"/>
-      <c r="K452" s="20"/>
+      <c r="K452" s="48">
+        <v>45267</v>
+      </c>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="39">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11772,7 +11787,7 @@
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="39">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11790,7 +11805,7 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="39">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11808,7 +11823,7 @@
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="39">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11826,7 +11841,7 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="39">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11844,7 +11859,7 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="39">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11862,7 +11877,7 @@
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="39">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11880,7 +11895,7 @@
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="39">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11898,7 +11913,7 @@
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="39">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11916,7 +11931,7 @@
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="39">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11934,7 +11949,7 @@
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="39">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11952,7 +11967,7 @@
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="39">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11970,7 +11985,7 @@
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="39">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -11988,7 +12003,7 @@
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="39">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -12006,7 +12021,7 @@
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="39">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -12024,7 +12039,7 @@
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="39">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -12042,7 +12057,7 @@
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="39">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -12060,7 +12075,7 @@
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="39">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -12078,7 +12093,7 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="39">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -12096,7 +12111,7 @@
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="39">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -12114,7 +12129,7 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="39">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -12132,7 +12147,7 @@
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="39">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -12150,7 +12165,7 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="39">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -12168,7 +12183,7 @@
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="39">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -12186,7 +12201,7 @@
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="39">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -12204,7 +12219,7 @@
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="39">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -12222,7 +12237,7 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="39">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -12240,7 +12255,7 @@
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="39">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -12258,7 +12273,7 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="39">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13"/>
@@ -12276,7 +12291,7 @@
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="39">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B482" s="20"/>
       <c r="C482" s="13"/>
@@ -12294,7 +12309,7 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="39">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13"/>
@@ -12312,7 +12327,7 @@
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="39">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13"/>
@@ -12330,7 +12345,7 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="39">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B485" s="20"/>
       <c r="C485" s="13"/>
@@ -12348,7 +12363,7 @@
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="39">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B486" s="20"/>
       <c r="C486" s="13"/>
@@ -12366,7 +12381,7 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="39">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B487" s="20"/>
       <c r="C487" s="13"/>
@@ -12384,7 +12399,7 @@
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="39">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
@@ -12402,7 +12417,7 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="39">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="13"/>
@@ -12420,7 +12435,7 @@
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="39">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="13"/>
@@ -12438,7 +12453,7 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="39">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="13"/>
@@ -12456,7 +12471,7 @@
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="39">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="13"/>
@@ -12473,7 +12488,9 @@
       <c r="K492" s="20"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A493" s="39"/>
+      <c r="A493" s="39">
+        <v>46478</v>
+      </c>
       <c r="B493" s="20"/>
       <c r="C493" s="13"/>
       <c r="D493" s="38"/>
@@ -12521,20 +12538,36 @@
       <c r="K495" s="20"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="40"/>
-      <c r="B496" s="15"/>
-      <c r="C496" s="41"/>
-      <c r="D496" s="42"/>
+      <c r="A496" s="39"/>
+      <c r="B496" s="20"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="38"/>
       <c r="E496" s="9"/>
-      <c r="F496" s="15"/>
-      <c r="G496" s="41" t="str">
+      <c r="F496" s="20"/>
+      <c r="G496" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H496" s="42"/>
+      <c r="H496" s="38"/>
       <c r="I496" s="9"/>
-      <c r="J496" s="12"/>
-      <c r="K496" s="15"/>
+      <c r="J496" s="11"/>
+      <c r="K496" s="20"/>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" s="40"/>
+      <c r="B497" s="15"/>
+      <c r="C497" s="41"/>
+      <c r="D497" s="42"/>
+      <c r="E497" s="9"/>
+      <c r="F497" s="15"/>
+      <c r="G497" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H497" s="42"/>
+      <c r="I497" s="9"/>
+      <c r="J497" s="12"/>
+      <c r="K497" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
